--- a/medicine/Enfance/Thomas_Gunzig/Thomas_Gunzig.xlsx
+++ b/medicine/Enfance/Thomas_Gunzig/Thomas_Gunzig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Gunzig, né le 7 septembre 1970 à Bruxelles (province de Brabant), est un écrivain belge francophone. 
 </t>
@@ -511,20 +523,22 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Gunzig naît le 7 septembre 1970 à Bruxelles[1]. Il est le fils du cosmologue Edgard Gunzig[1].
-Son enfance est marquée par sa dyslexie ; il connaît d’abord une scolarité difficile avant d’obtenir une licence de sciences politiques[2].
-En 1993, il publie son premier recueil de nouvelles, Situation instable penchant vers le mois d’août[3].
-Après avoir été libraire[3] pendant 10 ans à la librairie Tropismes (Bruxelles), il est devenu professeur de littérature dans les écoles supérieures artistiques de La Cambre et de Saint-Luc[2]. Il est également chroniqueur régulier depuis 2006 pour l'émission de radio Le Jeu des dictionnaires (La Première), le journal Le Soir[2] et l'émission télévisée Les Bureaux du pouvoir de La Une.
-Le 6 mars 2008, pour récupérer les droits d’un de ses recueils de nouvelles, Carbowaterstoemp, et pour éviter les coûts d'un procès, Gunzig, ceinture marron de karaté, provoque en duel l'éditeur Luc Pire, ceinture rouge de taekwondo, pendant la Foire du livre de Bruxelles. Le combat se termine par la victoire de l'auteur qui récupère ainsi ses droits[4],[5].
-Il reçoit le prix Victor Rossel 2001 pour son premier roman Mort d'un parfait bilingue[3] et le prix des Éditeurs en 2003 pour son recueil de nouvelles Le Plus Petit Zoo du monde[2].
-Il contribue à quatre reprises à la revue littéraire en ligne Bon-à-tirer, y publiant des nouvelles inédites[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Gunzig naît le 7 septembre 1970 à Bruxelles. Il est le fils du cosmologue Edgard Gunzig.
+Son enfance est marquée par sa dyslexie ; il connaît d’abord une scolarité difficile avant d’obtenir une licence de sciences politiques.
+En 1993, il publie son premier recueil de nouvelles, Situation instable penchant vers le mois d’août.
+Après avoir été libraire pendant 10 ans à la librairie Tropismes (Bruxelles), il est devenu professeur de littérature dans les écoles supérieures artistiques de La Cambre et de Saint-Luc. Il est également chroniqueur régulier depuis 2006 pour l'émission de radio Le Jeu des dictionnaires (La Première), le journal Le Soir et l'émission télévisée Les Bureaux du pouvoir de La Une.
+Le 6 mars 2008, pour récupérer les droits d’un de ses recueils de nouvelles, Carbowaterstoemp, et pour éviter les coûts d'un procès, Gunzig, ceinture marron de karaté, provoque en duel l'éditeur Luc Pire, ceinture rouge de taekwondo, pendant la Foire du livre de Bruxelles. Le combat se termine par la victoire de l'auteur qui récupère ainsi ses droits,.
+Il reçoit le prix Victor Rossel 2001 pour son premier roman Mort d'un parfait bilingue et le prix des Éditeurs en 2003 pour son recueil de nouvelles Le Plus Petit Zoo du monde.
+Il contribue à quatre reprises à la revue littéraire en ligne Bon-à-tirer, y publiant des nouvelles inédites.
 Depuis avril 2010, il est chroniqueur dans l'émission de radio Matin Première, où il dresse dans son Café Serré un portrait de l'invité du jour.
 En 2013, son roman Manuel de survie à l'usage des incapables lui vaut le prix triennal du roman de la Fédération Wallonie-Bruxelles et, en 2014, il écrit une pièce de théâtre, un seul en scène, Et avec sa queue il frappe, d'abord jouée au théâtre Les Tanneurs puis au festival d'Avignon.
 La fiction de Gunzig est marquée par son humour noir, comme dans son recueil, Le Plus Petit Zoo du monde, où chaque nouvelle met en scène un animal sympathique et familier qui connaît un sort funeste. Très présente, la critique sociale n'est jamais orientée, ni catégorisable. Enfin, il oscille entre une culture érudite et une culture populaire, à laquelle il rend explicitement hommage dans 10 000 litres d'horreur pure.
-Il écrit à l'occasion pour le théâtre et pour le cinéma : il a notamment co-signé le scénario du film Le Tout Nouveau Testament[2] avec le réalisateur Jaco Van Dormael, film sélectionné dans la section parallèle de la Quinzaine des réalisateurs du Festival de Cannes 2015 et qui a remporté le prix du Best Screenplay au Festival international du film de Dublin en plus être nommé pour le Golden Globe du meilleur film en langue étrangère à la 73e cérémonie des Golden Globes et pour le César du meilleur film étranger à la 41e cérémonie des César.
-En 2024, il reçoit le prix Bob-Morane pour son roman Rocky, dernier rivage[7].
+Il écrit à l'occasion pour le théâtre et pour le cinéma : il a notamment co-signé le scénario du film Le Tout Nouveau Testament avec le réalisateur Jaco Van Dormael, film sélectionné dans la section parallèle de la Quinzaine des réalisateurs du Festival de Cannes 2015 et qui a remporté le prix du Best Screenplay au Festival international du film de Dublin en plus être nommé pour le Golden Globe du meilleur film en langue étrangère à la 73e cérémonie des Golden Globes et pour le César du meilleur film étranger à la 41e cérémonie des César.
+En 2024, il reçoit le prix Bob-Morane pour son roman Rocky, dernier rivage.
 </t>
         </is>
       </c>
@@ -555,18 +569,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Mort d'un parfait bilingue, Au diable vauvert, 2001, 252 p. (ISBN 978-2-84626-011-4)Prix Victor Rossel 2001
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mort d'un parfait bilingue, Au diable vauvert, 2001, 252 p. (ISBN 978-2-84626-011-4)Prix Victor Rossel 2001
 Kuru, Au diable vauvert (Vauvert), 2005, roman
 10 000 litres d'horreur pure : Modeste contribution à une sous-culture, Au diable vauvert (Vauvert), 2007Illustré par Blanquet
-Manuel de survie à l'usage des incapables, Vauvert, France, Au diable vauvert, 2013, 420 p.  (ISBN 978-2-84626-414-3) Sélection Prix Mauvais genres 2013[8], Prix triennal du roman de la Fédération Wallonie-Bruxelles 2016[9]
+Manuel de survie à l'usage des incapables, Vauvert, France, Au diable vauvert, 2013, 420 p.  (ISBN 978-2-84626-414-3) Sélection Prix Mauvais genres 2013, Prix triennal du roman de la Fédération Wallonie-Bruxelles 2016
 La Stratégie du hors-jeu, Éditions Au diable vauvert, 2016  (ISBN 979-10-307-0055-8)
 La Vie sauvage, Éditions Au diable vauvert, 2017  (ISBN 978-2-84626-961-2)
 Encore une histoire d’amour, Éditions Au diable vauvert, 2018  (ISBN 979-10-307-0215-6).
-Feel good, Éditions Au diable vauvert, 22 août 2019[10]  (ISBN 979-10-307-0283-5).
+Feel good, Éditions Au diable vauvert, 22 août 2019  (ISBN 979-10-307-0283-5).
 Le Sang des bêtes, Éditions Au diable vauvert, 2022  (ISBN 9791030704525).
-Rocky, dernier rivage, Éditions Au diable vauvert, 2023  (ISBN 9791030706055)
-Nouvelles et recueils de nouvelles
+Rocky, dernier rivage, Éditions Au diable vauvert, 2023  (ISBN 9791030706055)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles et recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Situation instable penchant vers le mois d'août, Jacques Grancher, 1993
 Il y avait quelque chose dans le noir qu'on n'avait pas vu, Éditions Julliard, 1997, nouvelles
 À part moi, personne n'est mort, Le Castor astral (Bordeaux), 1999
@@ -578,57 +632,198 @@
 Carbowaterstoemp : et autres spécialités, Labor (Bruxelles), 2005
 Pique-nique et autres nouvelles, Labor (Bruxelles), 2005
 Assortiment pour une vie meilleure : carbowaterstoemp et autres spécialités (nouvelles), Vauvert, Au diable vauvert (Vauvert), 2009, 489 p. (ISBN 978-2-84626-204-0)Nommé pour le prix Virilo 2009
-Romans jeunesse
-De la terrible et magnifique histoire des créatures les plus moches de l'univers : comment elles aidèrent Polo, et comment ils sauvèrent le monde, Labor (Bruxelles), 2002Réédition Mijade, Namur, 2008
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>De la terrible et magnifique histoire des créatures les plus moches de l'univers : comment elles aidèrent Polo, et comment ils sauvèrent le monde, Labor (Bruxelles), 2002Réédition Mijade, Namur, 2008
 Nom de code : Super-Pouvoir, Labor (Bruxelles), 2004Parfois référencé sous le titre Trois fois plus.Réédition Mijade, Namur, 2005
-Kiss and Cry, Bruxelles, Belgique, Les Impressions nouvelles, 2012, 80 p.  (ISBN 978-2-87449-148-1)
-Scénario
-2015 : Le Tout Nouveau Testament[11], film en coproduction belge, luxembourgeoise et française réalisé par Jaco Van Dormael, coécrit avec Thomas Gunzig.
-Théâtre
+Kiss and Cry, Bruxelles, Belgique, Les Impressions nouvelles, 2012, 80 p.  (ISBN 978-2-87449-148-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2015 : Le Tout Nouveau Testament, film en coproduction belge, luxembourgeoise et française réalisé par Jaco Van Dormael, coécrit avec Thomas Gunzig.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L’Héroïsme aux temps de la grippe aviaire, mise en scène par Alexandre Drouet et joué par Itsik Elbaz. Premièrement créé dans une version courte au Théâtre de Poche dans le cadre des « Contes héroïco-urbains » en 2007. Puis, prolongé de vidéos avant et après le spectacle comme si celui-ci était joué sur un DVD, et rejoué en 2009 et 2010.
 Raymond, avec Josse De Pauw, mise en scène par Manu Riche au Théâtre royal flamand de Bruxelles (KVS) en 2013
 Les Origines de la vie, avec Isabelle Wery, au Théâtre de Poche en 2008
 Avec sa queue il frappe, avec Alexandre Trocki au Théâtre des Tanneurs en 2014
 Et avec sa queue, il frappe, pièce de théâtre, 2014
-Borgias ![12], Théâtre royal du Parc, 2016.
-Bande dessinée
-Blake et Mortimer
-HS Le Dernier Pharaon[13], Éditions Blake et Mortimer, Bruxelles, 29 mai 2019Scénario : Jaco Van Dormael, Thomas Gunzig et François Schuiten - Dessin : François Schuiten - Couleurs : Laurent Durieux -  (ISBN 978-2-87097-280-9)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Borgias !, Théâtre royal du Parc, 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Thomas_Gunzig</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thomas_Gunzig</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Blake et Mortimer
+HS Le Dernier Pharaon, Éditions Blake et Mortimer, Bruxelles, 29 mai 2019Scénario : Jaco Van Dormael, Thomas Gunzig et François Schuiten - Dessin : François Schuiten - Couleurs : Laurent Durieux -  (ISBN 978-2-87097-280-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Gunzig</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2001 :  prix Victor Rossel 2001 pour son premier roman Mort d'un parfait bilingue[3] ;
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2001 :  prix Victor Rossel 2001 pour son premier roman Mort d'un parfait bilingue ;
 2016 :
- Magritte du meilleur scénario 2016 pour Le Tout Nouveau Testament[14] ;
+ Magritte du meilleur scénario 2016 pour Le Tout Nouveau Testament ;
 Best Screenplay au Festival international du film de Dublin pour Le Tout Nouveau Testament ;
-Trophées francophones du cinéma 2016 : Trophée francophone du scénario pour Le Tout Nouveau Testament[15] ;
-2024 :  prix Bob-Morane pour son roman Rocky, dernier rivage[7].</t>
+Trophées francophones du cinéma 2016 : Trophée francophone du scénario pour Le Tout Nouveau Testament ;
+2024 :  prix Bob-Morane pour son roman Rocky, dernier rivage.</t>
         </is>
       </c>
     </row>
